--- a/RPA_Meteo_Alert/Input/input.xlsx
+++ b/RPA_Meteo_Alert/Input/input.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE50B0D-B140-4EA0-A5FC-BB59906D8D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F4ADD-E61D-4CE8-A069-E88897B6FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22356" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="16608" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Andorre" sheetId="4" r:id="rId1"/>
+    <sheet name="Lazio" sheetId="3" r:id="rId2"/>
+    <sheet name="Ain" sheetId="2" r:id="rId3"/>
+    <sheet name="Users" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +61,9 @@
   </si>
   <si>
     <t>Lazio</t>
+  </si>
+  <si>
+    <t>Andorre</t>
   </si>
 </sst>
 </file>
@@ -385,11 +391,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210B9027-D73B-4B85-93B1-522649D513DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99348B7C-9368-4B26-AF41-CA474BD06920}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2BEDA-9CBC-41C8-BE46-F3B0D5FF2123}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,10 +500,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{12ADC21A-67EF-463D-A035-09D74E213B90}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{32F3501E-C943-491F-B200-1FF71DF189DD}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{541F36A8-EA77-4E50-9607-4223846C7FF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPA_Meteo_Alert/Input/input.xlsx
+++ b/RPA_Meteo_Alert/Input/input.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F4ADD-E61D-4CE8-A069-E88897B6FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DE3B86-CDCF-410A-B353-2168CBE4A9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="16608" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Andorre" sheetId="4" r:id="rId1"/>
-    <sheet name="Lazio" sheetId="3" r:id="rId2"/>
-    <sheet name="Ain" sheetId="2" r:id="rId3"/>
-    <sheet name="Users" sheetId="1" r:id="rId4"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -391,64 +388,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210B9027-D73B-4B85-93B1-522649D513DA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99348B7C-9368-4B26-AF41-CA474BD06920}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2BEDA-9CBC-41C8-BE46-F3B0D5FF2123}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/RPA_Meteo_Alert/Input/input.xlsx
+++ b/RPA_Meteo_Alert/Input/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DE3B86-CDCF-410A-B353-2168CBE4A9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E04B92A-0816-45B0-BB5B-9A99A32CAAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="18300" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -39,46 +39,26 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Macovei-Grigoras Stefan</t>
-  </si>
-  <si>
     <t>stefan.macovei09@gmail.com</t>
   </si>
   <si>
-    <t>Ain</t>
-  </si>
-  <si>
-    <t>stefan.macovei@stud.ubbcluj.ro</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Andorre</t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Berlin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,16 +81,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,52 +394,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{12ADC21A-67EF-463D-A035-09D74E213B90}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{32F3501E-C943-491F-B200-1FF71DF189DD}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{541F36A8-EA77-4E50-9607-4223846C7FF5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RPA_Meteo_Alert/Input/input.xlsx
+++ b/RPA_Meteo_Alert/Input/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E04B92A-0816-45B0-BB5B-9A99A32CAAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78731851-F9F7-436B-8B08-60AE6785366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="18300" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="18300" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -42,23 +42,49 @@
     <t>stefan.macovei09@gmail.com</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>Berlin</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Sardegna</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Eure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +107,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,19 +423,52 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{DDF4E6C9-DA50-436D-AC6F-158204BAB76A}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{B11CB262-8DFC-453E-8263-642AF1869505}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>